--- a/datos/distancia_ciudades.xlsx
+++ b/datos/distancia_ciudades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\times\Desktop\Optimización - 1113\ICS1113-G40-Gurobi\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82040B23-F0F7-4359-9B32-9A388EAE8D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C175B6-1CD7-44CB-B79F-637B43E9AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Cuidad</t>
   </si>
@@ -36,149 +36,47 @@
     <t>Viña del Mar</t>
   </si>
   <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>Quilpué</t>
-  </si>
-  <si>
-    <t>Concon</t>
-  </si>
-  <si>
-    <t>Quintero</t>
-  </si>
-  <si>
-    <t>47.7</t>
-  </si>
-  <si>
-    <t>Olmué</t>
-  </si>
-  <si>
-    <t>48.2</t>
-  </si>
-  <si>
-    <t>Quillota</t>
-  </si>
-  <si>
-    <t>Zapallar</t>
-  </si>
-  <si>
-    <t>76.3</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>85.4</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
     <t>Santiago</t>
   </si>
   <si>
-    <t>115.5</t>
-  </si>
-  <si>
-    <t>San Felipe</t>
-  </si>
-  <si>
-    <t>Santa María</t>
-  </si>
-  <si>
     <t>Rancagua</t>
   </si>
   <si>
-    <t>191.7</t>
-  </si>
-  <si>
-    <t>San Fernando</t>
-  </si>
-  <si>
-    <t>244.9</t>
-  </si>
-  <si>
-    <t>Curicó</t>
-  </si>
-  <si>
-    <t>301.6</t>
-  </si>
-  <si>
     <t>Talca</t>
   </si>
   <si>
-    <t>361.7</t>
-  </si>
-  <si>
-    <t>Linares</t>
-  </si>
-  <si>
-    <t>411.7</t>
-  </si>
-  <si>
-    <t>Coquimbo</t>
-  </si>
-  <si>
-    <t>422.1</t>
-  </si>
-  <si>
     <t>La Serena</t>
   </si>
   <si>
-    <t>432.1</t>
-  </si>
-  <si>
-    <t>Chillán</t>
-  </si>
-  <si>
-    <t>509.7</t>
-  </si>
-  <si>
     <t>Concepción</t>
   </si>
   <si>
-    <t>Talcahuano</t>
-  </si>
-  <si>
-    <t>608.4</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>619.8</t>
-  </si>
-  <si>
     <t>Temuco</t>
   </si>
   <si>
-    <t>784.8</t>
-  </si>
-  <si>
-    <t>Valdivia</t>
-  </si>
-  <si>
-    <t>954.2</t>
-  </si>
-  <si>
     <t>Antofagasta</t>
   </si>
   <si>
-    <t>1,294.40</t>
-  </si>
-  <si>
-    <t>Calama</t>
-  </si>
-  <si>
-    <t>1,492.60</t>
+    <t>cant. personas</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>Iquique</t>
+  </si>
+  <si>
+    <t>Total Aproximado:</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,16 +84,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,12 +113,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,236 +486,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="5">
+        <v>115.5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="5">
+        <v>191.7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>244000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="5">
+        <v>361.7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="5">
+        <v>432.1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" s="5">
+        <v>605</v>
+      </c>
+      <c r="C7" s="6">
+        <v>229000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="5">
+        <v>784.8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1138</v>
+      </c>
+      <c r="C9" s="6">
+        <v>245900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B10" s="7">
+        <v>1294.4000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B11" s="7">
+        <v>1716.8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>299800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C12" s="6">
+        <v>9500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
+      <c r="C13" s="6">
+        <v>9506700</v>
       </c>
     </row>
   </sheetData>

--- a/datos/distancia_ciudades.xlsx
+++ b/datos/distancia_ciudades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C175B6-1CD7-44CB-B79F-637B43E9AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4840ADBD-AC4C-4988-B38D-AF5C9E5832E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>La Serena</t>
   </si>
   <si>
-    <t>Concepción</t>
-  </si>
-  <si>
     <t>Temuco</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -566,7 +566,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5">
         <v>605</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>784.8</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
         <v>1138</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>1294.4000000000001</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7">
         <v>1716.8</v>
@@ -622,7 +622,7 @@
     <row r="12" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6">
         <v>9500000</v>
@@ -631,7 +631,7 @@
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6">
         <v>9506700</v>

--- a/datos/distancia_ciudades.xlsx
+++ b/datos/distancia_ciudades.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4840ADBD-AC4C-4988-B38D-AF5C9E5832E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4840ADBD-AC4C-4988-B38D-AF5C9E5832E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF89D21-6230-4539-9201-446DBD215284}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,6 +44,9 @@
     <t>dist. (km) de Valparaiso</t>
   </si>
   <si>
+    <t>cant. personas</t>
+  </si>
+  <si>
     <t>Viña del Mar</t>
   </si>
   <si>
@@ -48,18 +62,18 @@
     <t>La Serena</t>
   </si>
   <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
     <t>Temuco</t>
   </si>
   <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
     <t>Antofagasta</t>
   </si>
   <si>
-    <t>cant. personas</t>
-  </si>
-  <si>
-    <t>Puerto Montt</t>
-  </si>
-  <si>
     <t>Iquique</t>
   </si>
   <si>
@@ -67,16 +81,13 @@
   </si>
   <si>
     <t>Total:</t>
-  </si>
-  <si>
-    <t>Concepcion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +100,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -206,6 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,19 +506,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="54" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,12 +526,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="27.6" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
         <v>8.6</v>
@@ -520,9 +540,9 @@
         <v>328000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>115.5</v>
@@ -531,9 +551,9 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5">
         <v>191.7</v>
@@ -541,10 +561,11 @@
       <c r="C4" s="6">
         <v>244000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
         <v>361.7</v>
@@ -553,9 +574,9 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="27.6" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5">
         <v>432.1</v>
@@ -564,9 +585,9 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="27.6" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
         <v>605</v>
@@ -575,9 +596,9 @@
         <v>229000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
         <v>784.8</v>
@@ -586,7 +607,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="27.6" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -597,9 +618,9 @@
         <v>245900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="27.6" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7">
         <v>1294.4000000000001</v>
@@ -608,9 +629,9 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>1716.8</v>
@@ -619,19 +640,19 @@
         <v>299800</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="40.9" thickBot="1">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6">
         <v>9500000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" thickBot="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6">
         <v>9506700</v>
